--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElDamarawyZ\Documents\UiPath\GenerateYearlyReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD5C8A-475A-4B4B-8574-EC499A54FEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E5D55B-E16A-4509-ABAD-69736EAF640F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Calculate Client Hash</t>
-  </si>
-  <si>
     <t>zeyadsamer1806@gmail.com's workspace</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
   </si>
   <si>
     <t>WorkItemsBaseURL</t>
+  </si>
+  <si>
+    <t>ReportDownloadBasePath</t>
+  </si>
+  <si>
+    <t>Generate Yearly Report</t>
+  </si>
+  <si>
+    <t>ACMEUploadSectionPageURL</t>
   </si>
 </sst>
 </file>
@@ -557,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -608,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -619,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -631,7 +637,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -639,10 +645,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1650,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5">
         <v>5.7870370370370373E-5</v>
@@ -2821,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2873,39 +2879,53 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>44</v>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3895,10 +3915,6 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
